--- a/ContentsCategoryOperation/TestBase/con_base.xlsx
+++ b/ContentsCategoryOperation/TestBase/con_base.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYB141\Desktop\個人ファイル\自動テストプログラム\ContentsCategoryOperation\ContentsCategoryOperation\bin\Release\TestBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYB141\Desktop\個人ファイル\自動テストプログラム\ContentsCategoryOperation\ContentsCategoryOperation\TestBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="コンテンツカテゴリ" sheetId="1" r:id="rId1"/>
+    <sheet name="コンテンツカテゴリ" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="アクションフィールドID">[1]アクションフィールド定義!$X$6:$AE$334</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,14 +61,6 @@
     <t>更新日</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サイト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>レビュー実施者</t>
     <rPh sb="4" eb="6">
       <t>ジッシ</t>
@@ -90,18 +82,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テストＩＤ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>コンテンツカテゴリ名</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>サイトカテゴリID</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -180,6 +164,22 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストＩＤ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテンツカテゴリID</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2509,31 +2509,31 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2566,34 +2566,34 @@
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1">
       <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="G9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="54" customHeight="1">
